--- a/IPC2024_base2010/imputacion/indxbase2010_4.xlsx
+++ b/IPC2024_base2010/imputacion/indxbase2010_4.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrep_4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indgen_4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrep_div_4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrep2010_4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indgen2010_4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indrepdiv2010_4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.164864696727</v>
+        <v>177.1647464125867</v>
       </c>
     </row>
   </sheetData>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>145.2868171288427</v>
+        <v>145.2872695191606</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>274.2392365230395</v>
+        <v>274.2392199084956</v>
       </c>
     </row>
     <row r="4">
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.3253212703807</v>
+        <v>163.3252417555944</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>273.9729787877925</v>
+        <v>273.9727188413558</v>
       </c>
     </row>
     <row r="6">
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.985350517703</v>
+        <v>158.985179475371</v>
       </c>
     </row>
     <row r="7">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.4578811686955</v>
+        <v>160.456777854586</v>
       </c>
     </row>
     <row r="8">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243.0073381148374</v>
+        <v>243.0069218965624</v>
       </c>
     </row>
     <row r="9">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>287.3323099006544</v>
+        <v>287.3321260498468</v>
       </c>
     </row>
     <row r="3">
@@ -631,7 +631,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>131.0106648257245</v>
+        <v>131.0106755976659</v>
       </c>
     </row>
     <row r="4">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>120.3870539768196</v>
+        <v>120.3870338327307</v>
       </c>
     </row>
     <row r="5">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>131.5884025835025</v>
+        <v>131.5884346918349</v>
       </c>
     </row>
     <row r="7">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>136.5730265696076</v>
+        <v>136.5737071163416</v>
       </c>
     </row>
     <row r="8">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>142.5151087798746</v>
+        <v>142.5129828564424</v>
       </c>
     </row>
     <row r="9">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>111.1369386746916</v>
+        <v>111.1370182439259</v>
       </c>
     </row>
     <row r="10">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>134.4399699635351</v>
+        <v>134.4399817016806</v>
       </c>
     </row>
     <row r="11">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>152.9759452829137</v>
+        <v>152.9770389563711</v>
       </c>
     </row>
     <row r="13">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>137.4819668923104</v>
+        <v>137.4822678021645</v>
       </c>
     </row>
   </sheetData>
